--- a/data/MKTG390_Group2_Tacovore_Data.xlsx
+++ b/data/MKTG390_Group2_Tacovore_Data.xlsx
@@ -12757,7 +12757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12773,80 +12773,75 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Q2_1</t>
+          <t>Quality &gt; Price</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Interests you the most?</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Q4_1</t>
+          <t>Ads are Influential</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Follow Restaurants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Q8_1</t>
+          <t>Stand Out?</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q8_2</t>
+          <t>Visually Appealing</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Q8_3</t>
+          <t>Influential?</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Q11</t>
+          <t>Spend</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Q12</t>
+          <t>Order?</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Q13</t>
+          <t>Menu Thoughts</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Q14_1</t>
+          <t>Weekly Eating Out</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Q15</t>
+          <t>Years as Student</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Q16</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Q16_3_TEXT</t>
+          <t>InstagramVersion</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>InstagramVersion</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>MenuVersion</t>
         </is>
@@ -12858,45 +12853,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -12913,25 +12894,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M2" t="n">
+        <v>3</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -12941,45 +12919,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -12996,25 +12960,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M3" t="n">
+        <v>3</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -13024,45 +12985,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -13079,25 +13026,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M4" t="n">
+        <v>3</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -13107,45 +13051,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -13162,25 +13092,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M5" t="n">
+        <v>3</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -13190,45 +13117,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Disagree</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -13245,25 +13158,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M6" t="n">
+        <v>3</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -13273,45 +13183,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
+      <c r="B7" t="n">
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>20</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -13328,25 +13224,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>5+ Years</t>
-        </is>
+      <c r="M7" t="n">
+        <v>5</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -13356,45 +13249,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B8" t="n">
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -13407,25 +13286,22 @@
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M8" t="n">
+        <v>1</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -13435,45 +13311,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B9" t="n">
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -13490,25 +13352,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M9" t="n">
+        <v>1</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -13518,45 +13377,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B10" t="n">
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -13573,25 +13418,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M10" t="n">
+        <v>1</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -13601,45 +13443,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B11" t="n">
+        <v>-1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Community interaction online.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -13656,25 +13484,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M11" t="n">
+        <v>1</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -13684,45 +13509,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B12" t="n">
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -13739,25 +13550,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M12" t="n">
+        <v>1</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -13767,45 +13575,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B13" t="n">
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -13822,25 +13616,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M13" t="n">
+        <v>1</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -13850,45 +13641,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Disagree</t>
-        </is>
+      <c r="B14" t="n">
+        <v>-2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -13905,25 +13682,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M14" t="n">
+        <v>1</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -13933,45 +13707,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B15" t="n">
+        <v>-1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>15</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -13988,25 +13748,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M15" t="n">
+        <v>1</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -14016,45 +13773,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
+      <c r="B16" t="n">
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>26</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -14071,25 +13814,22 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M16" t="n">
+        <v>3</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -14099,45 +13839,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B17" t="n">
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -14154,25 +13880,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M17" t="n">
+        <v>4</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -14182,45 +13905,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
+      <c r="B18" t="n">
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -14237,25 +13946,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M18" t="n">
+        <v>4</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -14265,45 +13971,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B19" t="n">
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -14320,25 +14012,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M19" t="n">
+        <v>4</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -14348,40 +14037,28 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
+      <c r="B20" t="n">
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
+      <c r="D20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
@@ -14399,25 +14076,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M20" t="n">
+        <v>4</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -14427,45 +14101,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B21" t="n">
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Disagree</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D21" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -14482,25 +14142,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M21" t="n">
+        <v>3</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -14510,45 +14167,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B22" t="n">
+        <v>-1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -14565,25 +14208,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M22" t="n">
+        <v>4</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -14593,45 +14233,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B23" t="n">
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>Community interaction online.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -14648,25 +14274,22 @@
           <t>5</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M23" t="n">
+        <v>4</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -14676,45 +14299,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B24" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="D24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -14731,25 +14340,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M24" t="n">
+        <v>3</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -14759,45 +14365,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Disagree</t>
-        </is>
+      <c r="B25" t="n">
+        <v>-2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>15</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -14814,25 +14406,22 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M25" t="n">
+        <v>4</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -14842,45 +14431,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B26" t="n">
+        <v>-1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>13</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -14897,25 +14472,22 @@
           <t>7</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M26" t="n">
+        <v>1</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -14925,45 +14497,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
+      <c r="B27" t="n">
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -14980,25 +14538,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M27" t="n">
+        <v>4</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -15008,45 +14563,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B28" t="n">
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -15063,25 +14604,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M28" t="n">
+        <v>4</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -15091,45 +14629,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
+      <c r="B29" t="n">
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="D29" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -15146,25 +14670,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M29" t="n">
+        <v>4</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -15174,45 +14695,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B30" t="n">
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D30" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>15</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -15229,25 +14736,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M30" t="n">
+        <v>4</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -15257,45 +14761,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B31" t="n">
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>15</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -15312,25 +14802,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M31" t="n">
+        <v>1</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -15340,45 +14827,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B32" t="n">
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>15</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -15395,25 +14868,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M32" t="n">
+        <v>4</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -15423,45 +14893,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B33" t="n">
+        <v>-1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>15</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -15478,25 +14934,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M33" t="n">
+        <v>3</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -15506,45 +14959,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B34" t="n">
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>Community interaction online.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>13</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -15561,25 +15000,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M34" t="n">
+        <v>1</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -15589,45 +15025,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B35" t="n">
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -15644,25 +15066,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M35" t="n">
+        <v>1</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -15672,45 +15091,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B36" t="n">
+        <v>-1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -15723,25 +15128,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M36" t="n">
+        <v>1</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -15751,45 +15153,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Disagree</t>
-        </is>
+      <c r="B37" t="n">
+        <v>-2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>30</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -15806,25 +15194,22 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M37" t="n">
+        <v>1</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -15834,45 +15219,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B38" t="n">
+        <v>1</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>Community interaction online.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>13</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -15889,25 +15260,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M38" t="n">
+        <v>1</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -15917,45 +15285,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
+      <c r="B39" t="n">
+        <v>0</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>10</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -15972,25 +15326,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M39" t="n">
+        <v>1</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -16000,45 +15351,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B40" t="n">
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Disagree</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D40" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>15</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -16055,25 +15392,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M40" t="n">
+        <v>1</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -16083,45 +15417,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B41" t="n">
+        <v>-1</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>15</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -16138,25 +15458,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M41" t="n">
+        <v>4</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -16166,45 +15483,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B42" t="n">
+        <v>-1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>Community interaction online.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -16221,25 +15524,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M42" t="n">
+        <v>3</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -16249,45 +15549,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B43" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="D43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -16304,25 +15590,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M43" t="n">
+        <v>1</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -16332,45 +15615,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Disagree</t>
-        </is>
+      <c r="B44" t="n">
+        <v>-2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -16387,25 +15656,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M44" t="n">
+        <v>1</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -16415,45 +15681,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B45" t="n">
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>10</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -16470,25 +15722,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M45" t="n">
+        <v>1</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -16498,41 +15747,29 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
+      <c r="B46" t="n">
+        <v>0</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="G46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>13</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -16545,25 +15782,22 @@
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M46" t="n">
+        <v>1</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -16573,45 +15807,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B47" t="n">
+        <v>-1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -16628,25 +15848,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M47" t="n">
+        <v>1</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -16656,45 +15873,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B48" t="n">
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>15</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -16711,25 +15914,22 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M48" t="n">
+        <v>1</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -16739,45 +15939,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B49" t="n">
+        <v>2</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -16794,25 +15980,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M49" t="n">
+        <v>1</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -16822,45 +16005,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
+      <c r="B50" t="n">
+        <v>3</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>Community interaction online.</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -16877,25 +16046,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M50" t="n">
+        <v>1</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -16905,45 +16071,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B51" t="n">
+        <v>-1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>12</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -16960,25 +16112,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M51" t="n">
+        <v>1</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -16988,45 +16137,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B52" t="n">
+        <v>2</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>15</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -17043,25 +16178,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M52" t="n">
+        <v>1</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -17071,45 +16203,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B53" t="n">
+        <v>1</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -17126,25 +16244,22 @@
           <t>4</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M53" t="n">
+        <v>1</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -17154,45 +16269,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B54" t="n">
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>13</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -17209,25 +16310,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M54" t="n">
+        <v>1</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -17237,45 +16335,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B55" t="n">
+        <v>2</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -17292,25 +16376,22 @@
           <t>7</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M55" t="n">
+        <v>1</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -17320,45 +16401,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B56" t="n">
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -17375,25 +16442,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M56" t="n">
+        <v>1</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -17403,45 +16467,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B57" t="n">
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -17458,25 +16508,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M57" t="n">
+        <v>1</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -17486,45 +16533,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B58" t="n">
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" t="n">
+        <v>10</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -17541,25 +16574,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M58" t="n">
+        <v>1</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -17569,45 +16599,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B59" t="n">
+        <v>-1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>20</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -17624,25 +16640,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2nd Year</t>
-        </is>
+      <c r="M59" t="n">
+        <v>2</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -17652,45 +16665,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
+      <c r="B60" t="n">
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -17707,25 +16706,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M60" t="n">
+        <v>1</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -17735,45 +16731,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B61" t="n">
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>13</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -17790,25 +16772,22 @@
           <t>7</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M61" t="n">
+        <v>1</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -17818,45 +16797,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B62" t="n">
+        <v>1</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -17869,25 +16834,22 @@
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M62" t="n">
+        <v>1</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -17897,45 +16859,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
+      <c r="B63" t="n">
+        <v>0</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>10</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -17952,25 +16900,22 @@
           <t>0</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M63" t="n">
+        <v>1</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -17980,45 +16925,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B64" t="n">
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -18035,25 +16966,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M64" t="n">
+        <v>1</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -18063,45 +16991,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B65" t="n">
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -18118,25 +17032,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2nd Year</t>
-        </is>
+      <c r="M65" t="n">
+        <v>2</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -18146,45 +17057,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B66" t="n">
+        <v>1</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>12</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -18201,25 +17098,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M66" t="n">
+        <v>3</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -18229,45 +17123,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B67" t="n">
+        <v>-1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>5</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -18284,25 +17164,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M67" t="n">
+        <v>4</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -18312,45 +17189,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B68" t="n">
+        <v>-1</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>Community interaction online.</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>6</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -18367,25 +17230,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>2nd Year</t>
-        </is>
+      <c r="M68" t="n">
+        <v>2</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -18395,40 +17255,28 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B69" t="n">
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Disagree</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
+      <c r="D69" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -18438,25 +17286,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M69" t="n">
+        <v>3</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -18466,45 +17311,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B70" t="n">
+        <v>-1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="D70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -18521,25 +17352,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M70" t="n">
+        <v>3</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -18549,45 +17377,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B71" t="n">
+        <v>2</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="D71" t="n">
+        <v>3</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -18604,25 +17418,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M71" t="n">
+        <v>1</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -18632,45 +17443,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
+      <c r="B72" t="n">
+        <v>3</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>Community interaction online.</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>11</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -18687,25 +17484,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>4th Year</t>
-        </is>
+      <c r="M72" t="n">
+        <v>4</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -18715,45 +17509,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B73" t="n">
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>5</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -18770,25 +17550,22 @@
           <t>1</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M73" t="n">
+        <v>3</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -18798,45 +17575,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B74" t="n">
+        <v>-1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="D74" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>15</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -18853,25 +17616,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>1st Year</t>
-        </is>
+      <c r="M74" t="n">
+        <v>1</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -18892,11 +17652,12 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -18915,11 +17676,12 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -18927,56 +17689,45 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
+      <c r="B77" t="n">
+        <v>0</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
       <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -18986,10 +17737,8 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B78" t="n">
+        <v>-1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -19005,11 +17754,12 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19017,56 +17767,45 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B79" t="n">
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Strongly disagree</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -19076,56 +17815,45 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B80" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -19135,56 +17863,45 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B81" t="n">
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
       <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -19194,56 +17911,45 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B82" t="n">
+        <v>2</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
       <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -19253,56 +17959,45 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="B83" t="n">
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -19312,45 +18007,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
+      <c r="B84" t="n">
+        <v>2</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>20</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -19367,25 +18048,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>3rd Year</t>
-        </is>
+      <c r="M84" t="n">
+        <v>3</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>
@@ -19395,45 +18073,31 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
+      <c r="B85" t="n">
+        <v>3</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Somewhat agree</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="D85" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -19450,25 +18114,22 @@
           <t>3</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>2nd Year</t>
-        </is>
+      <c r="M85" t="n">
+        <v>2</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -19478,56 +18139,45 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
+      <c r="B86" t="n">
+        <v>3</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
           <t>Special promotions or discounts.</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Strongly agree</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
+      <c r="D86" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
       <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -19548,11 +18198,12 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19560,56 +18211,45 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
+      <c r="B88" t="n">
+        <v>0</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
           <t>Opportunities to try a wider variety of food options.</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Agree</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
       <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Post</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>B</t>
+          <t>No Deal</t>
         </is>
       </c>
     </row>
@@ -19619,10 +18259,8 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
+      <c r="B89" t="n">
+        <v>0</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -19638,11 +18276,12 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19650,56 +18289,45 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Somewhat disagree</t>
-        </is>
+      <c r="B90" t="n">
+        <v>-1</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>Seeing a targeted advertisement on social media.</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Neither agree nor disagree</t>
-        </is>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
       <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Reel</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>A</t>
+          <t>Deal Included</t>
         </is>
       </c>
     </row>

--- a/data/MKTG390_Group2_Tacovore_Data.xlsx
+++ b/data/MKTG390_Group2_Tacovore_Data.xlsx
@@ -12757,7 +12757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P90"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12846,6 +12846,11 @@
           <t>MenuVersion</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -12912,6 +12917,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -12978,6 +12986,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -13044,6 +13055,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -13110,6 +13124,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -13176,6 +13193,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -13242,6 +13262,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -13304,6 +13327,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -13370,6 +13396,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -13436,6 +13465,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -13502,6 +13534,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -13568,6 +13603,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -13634,6 +13672,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -13700,6 +13741,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13766,6 +13810,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13832,6 +13879,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13898,6 +13948,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -13964,6 +14017,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14030,6 +14086,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14094,6 +14153,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14160,6 +14222,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14226,6 +14291,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14292,6 +14360,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14358,6 +14429,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14424,6 +14498,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -14490,6 +14567,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -14556,6 +14636,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -14622,6 +14705,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -14688,6 +14774,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -14754,6 +14843,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -14820,6 +14912,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -14886,6 +14981,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>8.300000000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -14952,6 +15050,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -15018,6 +15119,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -15084,6 +15188,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -15146,6 +15253,7 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -15212,6 +15320,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -15278,6 +15389,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -15344,6 +15458,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -15410,6 +15527,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q40" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -15476,6 +15596,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q41" t="n">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -15542,6 +15665,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q42" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -15608,6 +15734,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q43" t="n">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -15674,6 +15803,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q44" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -15740,6 +15872,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -15800,6 +15935,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q46" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -15866,6 +16004,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q47" t="n">
+        <v>7.199999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -15932,6 +16073,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q48" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -15998,6 +16142,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q49" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -16064,6 +16211,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q50" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -16130,6 +16280,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q51" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -16196,6 +16349,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q52" t="n">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -16262,6 +16418,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -16328,6 +16487,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q54" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -16394,6 +16556,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q55" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -16460,6 +16625,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q56" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -16526,6 +16694,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q57" t="n">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -16592,6 +16763,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q58" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -16658,6 +16832,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q59" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -16724,6 +16901,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q60" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -16790,6 +16970,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16852,6 +17035,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16918,6 +17104,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q63" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16984,6 +17173,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -17050,6 +17242,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q65" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17116,6 +17311,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q66" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17182,6 +17380,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q67" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17247,6 +17448,9 @@
         <is>
           <t>Deal Included</t>
         </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="69">
@@ -17304,6 +17508,7 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17370,6 +17575,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q70" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -17436,6 +17644,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q71" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -17502,6 +17713,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -17568,6 +17782,9 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17633,6 +17850,9 @@
         <is>
           <t>No Deal</t>
         </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -17658,6 +17878,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17682,6 +17903,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17730,6 +17952,7 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17760,6 +17983,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17808,6 +18032,7 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17856,6 +18081,7 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17904,6 +18130,7 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17952,6 +18179,7 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18000,6 +18228,7 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18066,6 +18295,9 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q84" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18131,6 +18363,9 @@
         <is>
           <t>No Deal</t>
         </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="86">
@@ -18180,6 +18415,7 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18204,6 +18440,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18252,6 +18489,7 @@
           <t>No Deal</t>
         </is>
       </c>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18282,6 +18520,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -18330,6 +18569,7 @@
           <t>Deal Included</t>
         </is>
       </c>
+      <c r="Q90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
